--- a/src/assets/月結對帳單總表.xlsx
+++ b/src/assets/月結對帳單總表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\G-Tai\G-Tai\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\G-Tai-client\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,58 +26,174 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>年月</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>車牌號碼</t>
-  </si>
-  <si>
-    <t>產品名稱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公升數合計</t>
-  </si>
-  <si>
-    <t>牌價合計</t>
-  </si>
-  <si>
-    <t>售價合計</t>
-  </si>
-  <si>
-    <t>總里程數</t>
-  </si>
-  <si>
-    <t>油耗</t>
-  </si>
-  <si>
-    <t>擔保品種類</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">擔保品額度
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>擔保品種類</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">擔保品額度
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>款項繳費期限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本期使用金額</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>款項繳費期限</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本期使用金額</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年月</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>車牌號碼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>產品名稱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公升數合計</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>牌價合計</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>售價合計</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總里程數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>油耗</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,26 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -122,6 +221,27 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -244,63 +364,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,154 +690,156 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G9" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="11" width="9" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="15" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1"/>
+    <col min="9" max="11" width="9" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="18"/>
+      <c r="A6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/assets/月結對帳單總表.xlsx
+++ b/src/assets/月結對帳單總表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\G-Tai-client\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\G-Tai\G-Tai\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -380,32 +380,32 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,110 +689,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="15" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="7" width="14" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="11" width="9" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -822,6 +821,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -833,19 +837,15 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.70866141732283472" right="1.1023622047244095" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,粗體"鉅泰創新股份有限公司&amp;R
 &amp;P/&amp;N</oddHeader>
+    <oddFooter>&amp;R&amp;8&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/assets/月結對帳單總表.xlsx
+++ b/src/assets/月結對帳單總表.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">工作表1!$9:$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -689,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -839,13 +842,12 @@
     <mergeCell ref="G7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="1.1023622047244095" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,粗體"鉅泰創新股份有限公司&amp;R
 &amp;P/&amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;8&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
 </file>